--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Nlgn2-Nrxn1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Nlgn2-Nrxn1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
   </si>
   <si>
     <t>sCs</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,309 +528,743 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.32035108919994</v>
+        <v>2.105309333333333</v>
       </c>
       <c r="H2">
-        <v>1.32035108919994</v>
+        <v>6.315928</v>
       </c>
       <c r="I2">
-        <v>0.09070514466207082</v>
+        <v>0.1253156463506908</v>
       </c>
       <c r="J2">
-        <v>0.09070514466207082</v>
+        <v>0.1253156463506908</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.0493875248725096</v>
+        <v>0.006517333333333333</v>
       </c>
       <c r="N2">
-        <v>0.0493875248725096</v>
+        <v>0.019552</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1115771572706054</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1115771572706054</v>
       </c>
       <c r="Q2">
-        <v>0.06520887225830718</v>
+        <v>0.01372100269511111</v>
       </c>
       <c r="R2">
-        <v>0.06520887225830718</v>
+        <v>0.123489024256</v>
       </c>
       <c r="S2">
-        <v>0.09070514466207082</v>
+        <v>0.01398236358133859</v>
       </c>
       <c r="T2">
-        <v>0.09070514466207082</v>
+        <v>0.0139823635813386</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>24</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.21685874239457</v>
+        <v>2.105309333333333</v>
       </c>
       <c r="H3">
-        <v>6.21685874239457</v>
+        <v>6.315928</v>
       </c>
       <c r="I3">
-        <v>0.4270841870659206</v>
+        <v>0.1253156463506908</v>
       </c>
       <c r="J3">
-        <v>0.4270841870659206</v>
+        <v>0.1253156463506908</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.0493875248725096</v>
+        <v>0.05189366666666667</v>
       </c>
       <c r="N3">
-        <v>0.0493875248725096</v>
+        <v>0.155681</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.8884228427293945</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8884228427293945</v>
       </c>
       <c r="Q3">
-        <v>0.3070352657688906</v>
+        <v>0.1092522207742222</v>
       </c>
       <c r="R3">
-        <v>0.3070352657688906</v>
+        <v>0.9832699869680002</v>
       </c>
       <c r="S3">
-        <v>0.4270841870659206</v>
+        <v>0.1113332827693522</v>
       </c>
       <c r="T3">
-        <v>0.4270841870659206</v>
+        <v>0.1113332827693522</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.277516173474607</v>
+        <v>6.243382666666666</v>
       </c>
       <c r="H4">
-        <v>0.277516173474607</v>
+        <v>18.730148</v>
       </c>
       <c r="I4">
-        <v>0.01906473578654864</v>
+        <v>0.3716287777289573</v>
       </c>
       <c r="J4">
-        <v>0.01906473578654864</v>
+        <v>0.3716287777289574</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.0493875248725096</v>
+        <v>0.006517333333333333</v>
       </c>
       <c r="N4">
-        <v>0.0493875248725096</v>
+        <v>0.019552</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.1115771572706054</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.1115771572706054</v>
       </c>
       <c r="Q4">
-        <v>0.01370583692000084</v>
+        <v>0.04069020596622222</v>
       </c>
       <c r="R4">
-        <v>0.01370583692000084</v>
+        <v>0.366211853696</v>
       </c>
       <c r="S4">
-        <v>0.01906473578654864</v>
+        <v>0.04146528257894673</v>
       </c>
       <c r="T4">
-        <v>0.01906473578654864</v>
+        <v>0.04146528257894674</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.650015476009464</v>
+        <v>6.243382666666666</v>
       </c>
       <c r="H5">
-        <v>0.650015476009464</v>
+        <v>18.730148</v>
       </c>
       <c r="I5">
-        <v>0.0446545985126953</v>
+        <v>0.3716287777289573</v>
       </c>
       <c r="J5">
-        <v>0.0446545985126953</v>
+        <v>0.3716287777289574</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0493875248725096</v>
+        <v>0.05189366666666667</v>
       </c>
       <c r="N5">
-        <v>0.0493875248725096</v>
+        <v>0.155681</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.8884228427293945</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.8884228427293945</v>
       </c>
       <c r="Q5">
-        <v>0.03210265548893357</v>
+        <v>0.3239920189764445</v>
       </c>
       <c r="R5">
-        <v>0.03210265548893357</v>
+        <v>2.915928170788</v>
       </c>
       <c r="S5">
-        <v>0.0446545985126953</v>
+        <v>0.3301634951500105</v>
       </c>
       <c r="T5">
-        <v>0.0446545985126953</v>
+        <v>0.3301634951500106</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.324794</v>
+      </c>
+      <c r="H6">
+        <v>0.974382</v>
+      </c>
+      <c r="I6">
+        <v>0.01933291673408544</v>
+      </c>
+      <c r="J6">
+        <v>0.01933291673408544</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.006517333333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.019552</v>
+      </c>
+      <c r="O6">
+        <v>0.1115771572706054</v>
+      </c>
+      <c r="P6">
+        <v>0.1115771572706054</v>
+      </c>
+      <c r="Q6">
+        <v>0.002116790762666666</v>
+      </c>
+      <c r="R6">
+        <v>0.019051116864</v>
+      </c>
+      <c r="S6">
+        <v>0.00215711189093857</v>
+      </c>
+      <c r="T6">
+        <v>0.00215711189093857</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.324794</v>
+      </c>
+      <c r="H7">
+        <v>0.974382</v>
+      </c>
+      <c r="I7">
+        <v>0.01933291673408544</v>
+      </c>
+      <c r="J7">
+        <v>0.01933291673408544</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.05189366666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.155681</v>
+      </c>
+      <c r="O7">
+        <v>0.8884228427293945</v>
+      </c>
+      <c r="P7">
+        <v>0.8884228427293945</v>
+      </c>
+      <c r="Q7">
+        <v>0.01685475157133333</v>
+      </c>
+      <c r="R7">
+        <v>0.151692764142</v>
+      </c>
+      <c r="S7">
+        <v>0.01717580484314686</v>
+      </c>
+      <c r="T7">
+        <v>0.01717580484314687</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.6689663333333334</v>
+      </c>
+      <c r="H8">
+        <v>2.006899</v>
+      </c>
+      <c r="I8">
+        <v>0.03981930214301921</v>
+      </c>
+      <c r="J8">
+        <v>0.03981930214301921</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.006517333333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.019552</v>
+      </c>
+      <c r="O8">
+        <v>0.1115771572706054</v>
+      </c>
+      <c r="P8">
+        <v>0.1115771572706054</v>
+      </c>
+      <c r="Q8">
+        <v>0.004359876583111112</v>
+      </c>
+      <c r="R8">
+        <v>0.039238889248</v>
+      </c>
+      <c r="S8">
+        <v>0.004442924537617409</v>
+      </c>
+      <c r="T8">
+        <v>0.004442924537617409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.6689663333333334</v>
+      </c>
+      <c r="H9">
+        <v>2.006899</v>
+      </c>
+      <c r="I9">
+        <v>0.03981930214301921</v>
+      </c>
+      <c r="J9">
+        <v>0.03981930214301921</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.05189366666666667</v>
+      </c>
+      <c r="N9">
+        <v>0.155681</v>
+      </c>
+      <c r="O9">
+        <v>0.8884228427293945</v>
+      </c>
+      <c r="P9">
+        <v>0.8884228427293945</v>
+      </c>
+      <c r="Q9">
+        <v>0.03471511591322223</v>
+      </c>
+      <c r="R9">
+        <v>0.312436043219</v>
+      </c>
+      <c r="S9">
+        <v>0.0353763776054018</v>
+      </c>
+      <c r="T9">
+        <v>0.0353763776054018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.04121533333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.123646</v>
+      </c>
+      <c r="I10">
+        <v>0.002453286105965348</v>
+      </c>
+      <c r="J10">
+        <v>0.002453286105965349</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.006517333333333333</v>
+      </c>
+      <c r="N10">
+        <v>0.019552</v>
+      </c>
+      <c r="O10">
+        <v>0.1115771572706054</v>
+      </c>
+      <c r="P10">
+        <v>0.1115771572706054</v>
+      </c>
+      <c r="Q10">
+        <v>0.0002686140657777778</v>
+      </c>
+      <c r="R10">
+        <v>0.002417526592</v>
+      </c>
+      <c r="S10">
+        <v>0.0002737306896750868</v>
+      </c>
+      <c r="T10">
+        <v>0.0002737306896750869</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.04121533333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.123646</v>
+      </c>
+      <c r="I11">
+        <v>0.002453286105965348</v>
+      </c>
+      <c r="J11">
+        <v>0.002453286105965349</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.05189366666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.155681</v>
+      </c>
+      <c r="O11">
+        <v>0.8884228427293945</v>
+      </c>
+      <c r="P11">
+        <v>0.8884228427293945</v>
+      </c>
+      <c r="Q11">
+        <v>0.002138814769555556</v>
+      </c>
+      <c r="R11">
+        <v>0.019249332926</v>
+      </c>
+      <c r="S11">
+        <v>0.002179555416290261</v>
+      </c>
+      <c r="T11">
+        <v>0.002179555416290262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
         <v>26</v>
       </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>6.09177671994532</v>
-      </c>
-      <c r="H6">
-        <v>6.09177671994532</v>
-      </c>
-      <c r="I6">
-        <v>0.4184913339727646</v>
-      </c>
-      <c r="J6">
-        <v>0.4184913339727646</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.0493875248725096</v>
-      </c>
-      <c r="N6">
-        <v>0.0493875248725096</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>0.3008577742740745</v>
-      </c>
-      <c r="R6">
-        <v>0.3008577742740745</v>
-      </c>
-      <c r="S6">
-        <v>0.4184913339727646</v>
-      </c>
-      <c r="T6">
-        <v>0.4184913339727646</v>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7.416384000000001</v>
+      </c>
+      <c r="H12">
+        <v>22.249152</v>
+      </c>
+      <c r="I12">
+        <v>0.4414500709372818</v>
+      </c>
+      <c r="J12">
+        <v>0.4414500709372819</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.006517333333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.019552</v>
+      </c>
+      <c r="O12">
+        <v>0.1115771572706054</v>
+      </c>
+      <c r="P12">
+        <v>0.1115771572706054</v>
+      </c>
+      <c r="Q12">
+        <v>0.048335046656</v>
+      </c>
+      <c r="R12">
+        <v>0.4350154199040001</v>
+      </c>
+      <c r="S12">
+        <v>0.04925574399208901</v>
+      </c>
+      <c r="T12">
+        <v>0.04925574399208901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>7.416384000000001</v>
+      </c>
+      <c r="H13">
+        <v>22.249152</v>
+      </c>
+      <c r="I13">
+        <v>0.4414500709372818</v>
+      </c>
+      <c r="J13">
+        <v>0.4414500709372819</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.05189366666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.155681</v>
+      </c>
+      <c r="O13">
+        <v>0.8884228427293945</v>
+      </c>
+      <c r="P13">
+        <v>0.8884228427293945</v>
+      </c>
+      <c r="Q13">
+        <v>0.3848633591680001</v>
+      </c>
+      <c r="R13">
+        <v>3.463770232512001</v>
+      </c>
+      <c r="S13">
+        <v>0.3921943269451928</v>
+      </c>
+      <c r="T13">
+        <v>0.3921943269451929</v>
       </c>
     </row>
   </sheetData>
